--- a/my-excel-test/src/main/resources/excel/easypoi-test-01.xlsx
+++ b/my-excel-test/src/main/resources/excel/easypoi-test-01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\my-excel\my-excel\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\my-excel\my-excel-test\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9224A8-E9EF-4DD8-9D98-0F2BBD102DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92ADCA-8149-4337-BC25-69768F734788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>{userList.name}</t>
-  </si>
-  <si>
-    <t>{userList.age}</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>{{total}}</t>
+  </si>
+  <si>
+    <t>{{$fe: userList t.name</t>
+  </si>
+  <si>
+    <t>t.age }}</t>
   </si>
 </sst>
 </file>
@@ -388,33 +388,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1171875" customWidth="1"/>
+    <col min="2" max="2" width="14.41015625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
